--- a/data/trans_orig/P6706-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFAC78F2-D936-498C-815C-5A42FEB49B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92CC4303-13D3-4745-AC79-73068ADDCC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{58FCC55E-F691-4577-9416-3902BA107B7B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A891EE04-FA32-45AD-90DB-59E34ABFE889}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="513">
   <si>
     <t>Población según si su trabajo requiere que esconda sus emociones en 2012 (Tasa respuesta: 33,63%)</t>
   </si>
@@ -76,1510 +76,1507 @@
     <t>25,65%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
   </si>
   <si>
     <t>27,27%</t>
   </si>
   <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
   </si>
   <si>
     <t>26,35%</t>
   </si>
   <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que esconda sus emociones en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que esconda sus emociones en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
   </si>
 </sst>
 </file>
@@ -1991,7 +1988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1737C88-E66E-4391-9909-122497B7CCA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0612160-228A-41F6-9C60-CA35127E8E30}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2217,13 +2214,13 @@
         <v>35148</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -2232,13 +2229,13 @@
         <v>30531</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -2247,19 +2244,19 @@
         <v>65679</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>28</v>
@@ -2268,13 +2265,13 @@
         <v>31063</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2283,13 +2280,13 @@
         <v>6335</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -2298,19 +2295,19 @@
         <v>37398</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>41</v>
@@ -2319,13 +2316,13 @@
         <v>42290</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>38</v>
@@ -2334,13 +2331,13 @@
         <v>41419</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>79</v>
@@ -2349,13 +2346,13 @@
         <v>83708</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,13 +2367,13 @@
         <v>180716</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>128</v>
@@ -2385,13 +2382,13 @@
         <v>137850</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>301</v>
@@ -2400,18 +2397,18 @@
         <v>318565</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2423,13 +2420,13 @@
         <v>180771</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -2438,13 +2435,13 @@
         <v>86333</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>251</v>
@@ -2453,13 +2450,13 @@
         <v>267104</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,13 +2471,13 @@
         <v>97619</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>72</v>
@@ -2489,13 +2486,13 @@
         <v>78128</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>166</v>
@@ -2504,13 +2501,13 @@
         <v>175747</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,13 +2522,13 @@
         <v>193196</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>101</v>
@@ -2540,13 +2537,13 @@
         <v>110471</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>289</v>
@@ -2555,10 +2552,10 @@
         <v>303667</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>87</v>
@@ -2567,7 +2564,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>182</v>
@@ -2579,10 +2576,10 @@
         <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>123</v>
@@ -2591,13 +2588,13 @@
         <v>130413</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>305</v>
@@ -2606,19 +2603,19 @@
         <v>320728</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>224</v>
@@ -2627,13 +2624,13 @@
         <v>245083</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>155</v>
@@ -2642,13 +2639,13 @@
         <v>163311</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>379</v>
@@ -2657,13 +2654,13 @@
         <v>408395</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2675,13 @@
         <v>906984</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>531</v>
@@ -2693,13 +2690,13 @@
         <v>568657</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1390</v>
@@ -2708,18 +2705,18 @@
         <v>1475641</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2731,13 +2728,13 @@
         <v>29331</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -2746,13 +2743,13 @@
         <v>29755</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -2761,13 +2758,13 @@
         <v>59086</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,13 +2779,13 @@
         <v>37213</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2797,13 +2794,13 @@
         <v>11753</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -2812,13 +2809,13 @@
         <v>48966</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2830,13 @@
         <v>51548</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -2848,13 +2845,13 @@
         <v>55187</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -2863,19 +2860,19 @@
         <v>106735</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>69</v>
@@ -2884,13 +2881,13 @@
         <v>75499</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2899,13 +2896,13 @@
         <v>39927</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -2914,19 +2911,19 @@
         <v>115426</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>111</v>
@@ -2935,13 +2932,13 @@
         <v>121751</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -2950,13 +2947,13 @@
         <v>95065</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>193</v>
@@ -2965,13 +2962,13 @@
         <v>216816</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2983,13 @@
         <v>315341</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>207</v>
@@ -3001,13 +2998,13 @@
         <v>231687</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>492</v>
@@ -3016,13 +3013,13 @@
         <v>547028</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,13 +3036,13 @@
         <v>256462</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7">
         <v>141</v>
@@ -3054,13 +3051,13 @@
         <v>153681</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>384</v>
@@ -3069,13 +3066,13 @@
         <v>410143</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3087,13 @@
         <v>160686</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>105</v>
@@ -3105,13 +3102,13 @@
         <v>111852</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>255</v>
@@ -3120,13 +3117,13 @@
         <v>272539</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3138,13 @@
         <v>279892</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>181</v>
@@ -3156,13 +3153,13 @@
         <v>196190</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="M24" s="7">
         <v>450</v>
@@ -3171,19 +3168,19 @@
         <v>476082</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>279</v>
@@ -3192,13 +3189,13 @@
         <v>296877</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>164</v>
@@ -3207,13 +3204,13 @@
         <v>176676</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>443</v>
@@ -3222,19 +3219,19 @@
         <v>473552</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>376</v>
@@ -3243,13 +3240,13 @@
         <v>409124</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>275</v>
@@ -3258,13 +3255,13 @@
         <v>299795</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>651</v>
@@ -3273,13 +3270,13 @@
         <v>708919</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,13 +3291,13 @@
         <v>1403041</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>866</v>
@@ -3309,13 +3306,13 @@
         <v>938194</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2183</v>
@@ -3324,18 +3321,18 @@
         <v>2341235</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3354,7 +3351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0949CD07-AB3F-4EE8-AE79-B3103A979682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B57E2E4-0F94-47A8-99C9-3B2D52E2B836}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3371,7 +3368,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3478,13 +3475,13 @@
         <v>38410</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3493,13 +3490,13 @@
         <v>15158</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -3508,13 +3505,13 @@
         <v>53569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3526,13 @@
         <v>28587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -3544,13 +3541,13 @@
         <v>17242</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -3559,13 +3556,13 @@
         <v>45830</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3577,13 @@
         <v>31839</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -3595,13 +3592,13 @@
         <v>14939</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -3610,19 +3607,19 @@
         <v>46778</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>23</v>
@@ -3631,13 +3628,13 @@
         <v>24370</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3646,13 +3643,13 @@
         <v>12977</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -3661,19 +3658,19 @@
         <v>37348</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>17</v>
@@ -3682,13 +3679,13 @@
         <v>19911</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -3697,13 +3694,13 @@
         <v>11770</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -3712,13 +3709,13 @@
         <v>31681</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3730,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3748,13 +3745,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3763,18 +3760,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3786,13 +3783,13 @@
         <v>202620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>96</v>
@@ -3801,13 +3798,13 @@
         <v>97703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>284</v>
@@ -3816,13 +3813,13 @@
         <v>300323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3834,13 @@
         <v>149922</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -3852,13 +3849,13 @@
         <v>98135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
         <v>234</v>
@@ -3867,13 +3864,13 @@
         <v>248057</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3885,13 @@
         <v>200564</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H12" s="7">
         <v>157</v>
@@ -3903,13 +3900,13 @@
         <v>161873</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M12" s="7">
         <v>346</v>
@@ -3918,19 +3915,19 @@
         <v>362437</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>191</v>
@@ -3939,13 +3936,13 @@
         <v>201178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -3954,13 +3951,13 @@
         <v>123377</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -3969,19 +3966,19 @@
         <v>324554</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>158</v>
@@ -3990,13 +3987,13 @@
         <v>170913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>169</v>
@@ -4005,13 +4002,13 @@
         <v>171688</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>327</v>
@@ -4020,13 +4017,13 @@
         <v>342601</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4038,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -4056,13 +4053,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -4071,18 +4068,18 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4094,13 +4091,13 @@
         <v>62817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -4109,13 +4106,13 @@
         <v>49299</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -4124,13 +4121,13 @@
         <v>112115</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,10 +4145,10 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -4160,13 +4157,13 @@
         <v>37902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -4175,13 +4172,13 @@
         <v>88084</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4193,13 @@
         <v>73146</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
@@ -4211,13 +4208,13 @@
         <v>65608</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
         <v>129</v>
@@ -4226,19 +4223,19 @@
         <v>138755</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>68</v>
@@ -4247,13 +4244,13 @@
         <v>73021</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -4262,13 +4259,13 @@
         <v>58385</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>124</v>
@@ -4277,19 +4274,19 @@
         <v>131407</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>86</v>
@@ -4298,13 +4295,13 @@
         <v>91441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>93</v>
@@ -4313,13 +4310,13 @@
         <v>97259</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>179</v>
@@ -4328,13 +4325,13 @@
         <v>188700</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4346,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -4364,13 +4361,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -4379,13 +4376,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4399,13 @@
         <v>303848</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -4417,13 +4414,13 @@
         <v>162160</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M22" s="7">
         <v>440</v>
@@ -4432,13 +4429,13 @@
         <v>466007</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4450,13 @@
         <v>228692</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>323</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H23" s="7">
         <v>150</v>
@@ -4468,13 +4465,13 @@
         <v>153279</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>362</v>
@@ -4483,13 +4480,13 @@
         <v>381971</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4501,13 @@
         <v>305549</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>336</v>
+        <v>89</v>
       </c>
       <c r="H24" s="7">
         <v>237</v>
@@ -4519,13 +4516,13 @@
         <v>242420</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M24" s="7">
         <v>520</v>
@@ -4534,19 +4531,19 @@
         <v>547969</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>282</v>
@@ -4555,13 +4552,13 @@
         <v>298570</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>190</v>
@@ -4570,13 +4567,13 @@
         <v>194739</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>472</v>
@@ -4585,19 +4582,19 @@
         <v>493308</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>275</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>261</v>
@@ -4606,13 +4603,13 @@
         <v>282266</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>33</v>
       </c>
       <c r="H26" s="7">
         <v>274</v>
@@ -4621,13 +4618,13 @@
         <v>280717</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M26" s="7">
         <v>535</v>
@@ -4636,13 +4633,13 @@
         <v>562982</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4654,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4672,13 +4669,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4687,18 +4684,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4717,7 +4714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0281C7BC-DD9B-4325-8E9A-25D4C3C19068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13A095F-70D3-46F2-AAD1-12B0D77B2452}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4734,7 +4731,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4841,13 +4838,13 @@
         <v>14091</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4856,13 +4853,13 @@
         <v>7039</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>363</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -4871,13 +4868,13 @@
         <v>21131</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4889,13 @@
         <v>4693</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4907,13 +4904,13 @@
         <v>2068</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4922,13 +4919,13 @@
         <v>6761</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4940,13 @@
         <v>5421</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>379</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4958,13 +4955,13 @@
         <v>6283</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4973,19 +4970,19 @@
         <v>11704</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -4994,13 +4991,13 @@
         <v>3055</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5009,13 +5006,13 @@
         <v>3562</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -5024,19 +5021,19 @@
         <v>6617</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -5045,13 +5042,13 @@
         <v>6126</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5060,13 +5057,13 @@
         <v>1359</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>62</v>
+        <v>396</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5075,13 +5072,13 @@
         <v>7485</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>397</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5093,13 @@
         <v>33387</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -5111,13 +5108,13 @@
         <v>20311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>66</v>
@@ -5126,18 +5123,18 @@
         <v>53698</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5149,13 +5146,13 @@
         <v>91536</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -5164,13 +5161,13 @@
         <v>50489</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M10" s="7">
         <v>139</v>
@@ -5179,13 +5176,13 @@
         <v>142025</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5197,13 @@
         <v>57492</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H11" s="7">
         <v>61</v>
@@ -5215,13 +5212,13 @@
         <v>41426</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>411</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M11" s="7">
         <v>117</v>
@@ -5230,13 +5227,13 @@
         <v>98919</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,7 +5248,7 @@
         <v>63597</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>159</v>
+        <v>416</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>417</v>
@@ -5269,10 +5266,10 @@
         <v>419</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M12" s="7">
         <v>148</v>
@@ -5281,10 +5278,10 @@
         <v>130939</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>423</v>
@@ -5293,7 +5290,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>37</v>
@@ -5305,10 +5302,10 @@
         <v>424</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -5317,13 +5314,13 @@
         <v>39078</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>428</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>429</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -5332,19 +5329,19 @@
         <v>128587</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>430</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -5353,13 +5350,13 @@
         <v>27663</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -5368,13 +5365,13 @@
         <v>53262</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M14" s="7">
         <v>83</v>
@@ -5383,13 +5380,13 @@
         <v>80925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5401,13 @@
         <v>329797</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>330</v>
@@ -5419,13 +5416,13 @@
         <v>251597</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>575</v>
@@ -5434,18 +5431,18 @@
         <v>581394</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5457,13 +5454,13 @@
         <v>38672</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>444</v>
+        <v>140</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -5472,13 +5469,13 @@
         <v>30154</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -5487,13 +5484,13 @@
         <v>68826</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5505,13 @@
         <v>15478</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -5523,13 +5520,13 @@
         <v>14900</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5538,13 +5535,13 @@
         <v>30378</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>456</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5556,13 @@
         <v>30738</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>345</v>
+        <v>454</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>188</v>
+        <v>455</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -5574,13 +5571,13 @@
         <v>29273</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
@@ -5589,19 +5586,19 @@
         <v>60011</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>459</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>263</v>
+        <v>460</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>13</v>
@@ -5610,13 +5607,13 @@
         <v>14572</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>464</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -5625,13 +5622,13 @@
         <v>16738</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -5640,19 +5637,19 @@
         <v>31310</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>24</v>
@@ -5661,13 +5658,13 @@
         <v>32958</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -5676,13 +5673,13 @@
         <v>23298</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>471</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>472</v>
       </c>
       <c r="M20" s="7">
         <v>53</v>
@@ -5691,10 +5688,10 @@
         <v>56256</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>473</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>474</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>475</v>
@@ -5712,13 +5709,13 @@
         <v>132419</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>146</v>
@@ -5727,13 +5724,13 @@
         <v>114363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>262</v>
@@ -5742,13 +5739,13 @@
         <v>246782</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5777,13 @@
         <v>87683</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="M22" s="7">
         <v>230</v>
@@ -5795,13 +5792,13 @@
         <v>231982</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5813,13 @@
         <v>77663</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -5831,13 +5828,13 @@
         <v>58394</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M23" s="7">
         <v>160</v>
@@ -5849,10 +5846,10 @@
         <v>489</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5864,13 @@
         <v>99756</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="H24" s="7">
         <v>140</v>
@@ -5882,13 +5879,13 @@
         <v>102898</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -5897,19 +5894,19 @@
         <v>202655</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>54</v>
@@ -5918,13 +5915,13 @@
         <v>107136</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H25" s="7">
         <v>79</v>
@@ -5933,13 +5930,13 @@
         <v>59378</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>488</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>503</v>
+        <v>320</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
@@ -5948,19 +5945,19 @@
         <v>166514</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>50</v>
@@ -5969,13 +5966,13 @@
         <v>66748</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>93</v>
@@ -5999,13 +5996,13 @@
         <v>144666</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6017,13 @@
         <v>495603</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -6035,13 +6032,13 @@
         <v>386271</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>903</v>
@@ -6050,18 +6047,18 @@
         <v>881874</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6706-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92CC4303-13D3-4745-AC79-73068ADDCC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53D11F5-69A2-4D30-AC0E-999DEC12AF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A891EE04-FA32-45AD-90DB-59E34ABFE889}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35635843-CFF8-4A81-9F0E-3C3FB02A6F60}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="509">
   <si>
     <t>Población según si su trabajo requiere que esconda sus emociones en 2012 (Tasa respuesta: 33,63%)</t>
   </si>
@@ -76,1479 +76,1473 @@
     <t>25,65%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>27,27%</t>
   </si>
   <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
     <t>19,95%</t>
   </si>
   <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que esconda sus emociones en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que esconda sus emociones en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>18,88%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
     <t>12,83%</t>
   </si>
   <si>
@@ -1559,12 +1553,6 @@
   </si>
   <si>
     <t>8,87%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
   </si>
   <si>
     <t>16,25%</t>
@@ -1988,7 +1976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0612160-228A-41F6-9C60-CA35127E8E30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CD7C96-B35A-4D48-AEB2-6BB79E84A90A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2214,13 +2202,13 @@
         <v>35148</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -2229,13 +2217,13 @@
         <v>30531</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -2244,19 +2232,19 @@
         <v>65679</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>28</v>
@@ -2265,13 +2253,13 @@
         <v>31063</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2280,13 +2268,13 @@
         <v>6335</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -2295,19 +2283,19 @@
         <v>37398</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>41</v>
@@ -2316,10 +2304,10 @@
         <v>42290</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>52</v>
@@ -2564,7 +2552,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>182</v>
@@ -2576,10 +2564,10 @@
         <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>123</v>
@@ -2588,13 +2576,13 @@
         <v>130413</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>305</v>
@@ -2603,19 +2591,19 @@
         <v>320728</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>224</v>
@@ -2624,13 +2612,13 @@
         <v>245083</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>155</v>
@@ -2639,13 +2627,13 @@
         <v>163311</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>379</v>
@@ -2654,13 +2642,13 @@
         <v>408395</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,7 +2704,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2728,13 +2716,13 @@
         <v>29331</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -2743,13 +2731,13 @@
         <v>29755</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -2758,13 +2746,13 @@
         <v>59086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2767,13 @@
         <v>37213</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2794,13 +2782,13 @@
         <v>11753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -2809,13 +2797,13 @@
         <v>48966</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2818,13 @@
         <v>51548</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -2845,13 +2833,13 @@
         <v>55187</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -2860,19 +2848,19 @@
         <v>106735</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>69</v>
@@ -2881,13 +2869,13 @@
         <v>75499</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2896,13 +2884,13 @@
         <v>39927</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -2911,19 +2899,19 @@
         <v>115426</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>111</v>
@@ -2932,13 +2920,13 @@
         <v>121751</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -2947,13 +2935,13 @@
         <v>95065</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>193</v>
@@ -2962,13 +2950,13 @@
         <v>216816</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3024,13 @@
         <v>256462</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>141</v>
@@ -3051,13 +3039,13 @@
         <v>153681</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>384</v>
@@ -3066,13 +3054,13 @@
         <v>410143</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3075,13 @@
         <v>160686</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>105</v>
@@ -3102,13 +3090,13 @@
         <v>111852</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>255</v>
@@ -3117,13 +3105,13 @@
         <v>272539</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3126,13 @@
         <v>279892</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="H24" s="7">
         <v>181</v>
@@ -3153,13 +3141,13 @@
         <v>196190</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>450</v>
@@ -3168,19 +3156,19 @@
         <v>476082</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>279</v>
@@ -3189,13 +3177,13 @@
         <v>296877</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>164</v>
@@ -3204,13 +3192,13 @@
         <v>176676</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>443</v>
@@ -3219,19 +3207,19 @@
         <v>473552</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>376</v>
@@ -3240,13 +3228,13 @@
         <v>409124</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>275</v>
@@ -3255,13 +3243,13 @@
         <v>299795</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>651</v>
@@ -3270,13 +3258,13 @@
         <v>708919</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,7 +3320,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3351,7 +3339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B57E2E4-0F94-47A8-99C9-3B2D52E2B836}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601AC534-476A-46DD-A81E-8FCD3C7EE526}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3368,7 +3356,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3475,13 +3463,13 @@
         <v>38410</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3490,13 +3478,13 @@
         <v>15158</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -3505,13 +3493,13 @@
         <v>53569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3514,13 @@
         <v>28587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -3541,13 +3529,13 @@
         <v>17242</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -3559,10 +3547,10 @@
         <v>79</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3565,13 @@
         <v>31839</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -3592,13 +3580,13 @@
         <v>14939</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -3607,19 +3595,19 @@
         <v>46778</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>23</v>
@@ -3628,13 +3616,13 @@
         <v>24370</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3643,13 +3631,13 @@
         <v>12977</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -3658,19 +3646,19 @@
         <v>37348</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>17</v>
@@ -3679,13 +3667,13 @@
         <v>19911</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -3694,13 +3682,13 @@
         <v>11770</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -3709,13 +3697,13 @@
         <v>31681</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3771,13 @@
         <v>202620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>96</v>
@@ -3798,13 +3786,13 @@
         <v>97703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>284</v>
@@ -3813,13 +3801,13 @@
         <v>300323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3822,13 @@
         <v>149922</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -3849,13 +3837,13 @@
         <v>98135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>234</v>
@@ -3864,13 +3852,13 @@
         <v>248057</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3873,13 @@
         <v>200564</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>157</v>
@@ -3900,13 +3888,13 @@
         <v>161873</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>346</v>
@@ -3915,19 +3903,19 @@
         <v>362437</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>191</v>
@@ -3936,13 +3924,13 @@
         <v>201178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -3951,13 +3939,13 @@
         <v>123377</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -3966,19 +3954,19 @@
         <v>324554</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>158</v>
@@ -3987,13 +3975,13 @@
         <v>170913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>169</v>
@@ -4002,13 +3990,13 @@
         <v>171688</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>327</v>
@@ -4017,13 +4005,13 @@
         <v>342601</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,7 +4067,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4091,13 +4079,13 @@
         <v>62817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -4106,13 +4094,13 @@
         <v>49299</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -4121,13 +4109,13 @@
         <v>112115</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,10 +4133,10 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -4157,13 +4145,13 @@
         <v>37902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -4172,13 +4160,13 @@
         <v>88084</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4181,13 @@
         <v>73146</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
@@ -4208,13 +4196,13 @@
         <v>65608</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>129</v>
@@ -4223,19 +4211,19 @@
         <v>138755</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>68</v>
@@ -4244,13 +4232,13 @@
         <v>73021</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -4259,13 +4247,13 @@
         <v>58385</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>124</v>
@@ -4274,19 +4262,19 @@
         <v>131407</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>86</v>
@@ -4295,13 +4283,13 @@
         <v>91441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>93</v>
@@ -4310,13 +4298,13 @@
         <v>97259</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>179</v>
@@ -4325,13 +4313,13 @@
         <v>188700</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4387,13 @@
         <v>303848</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -4414,13 +4402,13 @@
         <v>162160</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>319</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>440</v>
@@ -4429,13 +4417,13 @@
         <v>466007</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4438,13 @@
         <v>228692</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>324</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H23" s="7">
         <v>150</v>
@@ -4465,10 +4453,10 @@
         <v>153279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>328</v>
@@ -4507,7 +4495,7 @@
         <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="H24" s="7">
         <v>237</v>
@@ -4543,7 +4531,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>282</v>
@@ -4567,13 +4555,13 @@
         <v>194739</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>344</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>345</v>
+        <v>18</v>
       </c>
       <c r="M25" s="7">
         <v>472</v>
@@ -4582,19 +4570,19 @@
         <v>493308</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>261</v>
@@ -4603,13 +4591,13 @@
         <v>282266</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>33</v>
+        <v>347</v>
       </c>
       <c r="H26" s="7">
         <v>274</v>
@@ -4618,13 +4606,13 @@
         <v>280717</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M26" s="7">
         <v>535</v>
@@ -4633,13 +4621,13 @@
         <v>562982</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,7 +4683,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4714,7 +4702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13A095F-70D3-46F2-AAD1-12B0D77B2452}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AF3744-B4A8-49B6-ADD5-2F378BBF7E4B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4731,7 +4719,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4838,13 +4826,13 @@
         <v>14091</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4853,13 +4841,13 @@
         <v>7039</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -4868,13 +4856,13 @@
         <v>21131</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4877,13 @@
         <v>4693</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4904,13 +4892,13 @@
         <v>2068</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>369</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>370</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4919,13 +4907,13 @@
         <v>6761</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4928,13 @@
         <v>5421</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4955,13 +4943,13 @@
         <v>6283</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4970,19 +4958,19 @@
         <v>11704</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -4991,13 +4979,13 @@
         <v>3055</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5006,13 +4994,13 @@
         <v>3562</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -5021,19 +5009,19 @@
         <v>6617</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -5042,13 +5030,13 @@
         <v>6126</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5057,13 +5045,13 @@
         <v>1359</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5072,13 +5060,13 @@
         <v>7485</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,7 +5134,7 @@
         <v>91536</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>399</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>400</v>
@@ -5203,7 +5191,7 @@
         <v>409</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>410</v>
+        <v>342</v>
       </c>
       <c r="H11" s="7">
         <v>61</v>
@@ -5212,13 +5200,13 @@
         <v>41426</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M11" s="7">
         <v>117</v>
@@ -5227,13 +5215,13 @@
         <v>98919</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5236,13 @@
         <v>63597</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H12" s="7">
         <v>89</v>
@@ -5263,13 +5251,13 @@
         <v>67342</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>419</v>
+        <v>93</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>63</v>
+        <v>417</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M12" s="7">
         <v>148</v>
@@ -5278,19 +5266,19 @@
         <v>130939</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>37</v>
@@ -5299,13 +5287,13 @@
         <v>89509</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -5314,10 +5302,10 @@
         <v>39078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>88</v>
@@ -5329,19 +5317,19 @@
         <v>128587</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>426</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -5350,13 +5338,13 @@
         <v>27663</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -5365,13 +5353,13 @@
         <v>53262</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M14" s="7">
         <v>83</v>
@@ -5380,13 +5368,13 @@
         <v>80925</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,7 +5430,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5454,13 +5442,13 @@
         <v>38672</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>440</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -5469,13 +5457,13 @@
         <v>30154</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -5484,13 +5472,13 @@
         <v>68826</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5493,13 @@
         <v>15478</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -5520,13 +5508,13 @@
         <v>14900</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5535,7 +5523,7 @@
         <v>30378</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>451</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>452</v>
@@ -5559,7 +5547,7 @@
         <v>454</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>455</v>
@@ -5571,13 +5559,13 @@
         <v>29273</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
@@ -5586,19 +5574,19 @@
         <v>60011</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>13</v>
@@ -5607,13 +5595,13 @@
         <v>14572</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>460</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>462</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -5622,13 +5610,13 @@
         <v>16738</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -5637,19 +5625,19 @@
         <v>31310</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>24</v>
@@ -5658,13 +5646,13 @@
         <v>32958</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -5673,13 +5661,13 @@
         <v>23298</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M20" s="7">
         <v>53</v>
@@ -5688,13 +5676,13 @@
         <v>56256</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5750,13 @@
         <v>144300</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="H22" s="7">
         <v>111</v>
@@ -5777,10 +5765,10 @@
         <v>87683</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>87</v>
+        <v>478</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>479</v>
@@ -5792,13 +5780,13 @@
         <v>231982</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5801,13 @@
         <v>77663</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -5828,13 +5816,13 @@
         <v>58394</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M23" s="7">
         <v>160</v>
@@ -5843,13 +5831,13 @@
         <v>136058</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>490</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5852,13 @@
         <v>99756</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H24" s="7">
         <v>140</v>
@@ -5879,13 +5867,13 @@
         <v>102898</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -5894,19 +5882,19 @@
         <v>202655</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>54</v>
@@ -5915,13 +5903,13 @@
         <v>107136</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H25" s="7">
         <v>79</v>
@@ -5930,13 +5918,13 @@
         <v>59378</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
@@ -5945,19 +5933,19 @@
         <v>166514</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>243</v>
+        <v>500</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>50</v>
@@ -5966,13 +5954,13 @@
         <v>66748</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>507</v>
+        <v>326</v>
       </c>
       <c r="H26" s="7">
         <v>93</v>
@@ -5981,13 +5969,13 @@
         <v>77918</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>508</v>
+        <v>69</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M26" s="7">
         <v>143</v>
@@ -5996,13 +5984,13 @@
         <v>144666</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,7 +6046,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6706-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53D11F5-69A2-4D30-AC0E-999DEC12AF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB46A3DE-31B1-47F8-A99A-13C96BB23439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35635843-CFF8-4A81-9F0E-3C3FB02A6F60}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0622565-89AA-4DB6-9F75-FA9A187C1BAD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="514">
   <si>
     <t>Población según si su trabajo requiere que esconda sus emociones en 2012 (Tasa respuesta: 33,63%)</t>
   </si>
@@ -76,1495 +76,1510 @@
     <t>25,65%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>27,27%</t>
   </si>
   <si>
-    <t>20,16%</t>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que esconda sus emociones en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>35,8%</t>
   </si>
   <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>20,17%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que esconda sus emociones en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CD7C96-B35A-4D48-AEB2-6BB79E84A90A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64A30D2-3BF8-447E-AFC6-682E805538F9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2307,10 +2322,10 @@
         <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>38</v>
@@ -2319,13 +2334,13 @@
         <v>41419</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>79</v>
@@ -2334,13 +2349,13 @@
         <v>83708</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2370,13 @@
         <v>180716</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>128</v>
@@ -2370,13 +2385,13 @@
         <v>137850</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>301</v>
@@ -2385,18 +2400,18 @@
         <v>318565</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2408,13 +2423,13 @@
         <v>180771</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -2423,13 +2438,13 @@
         <v>86333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>251</v>
@@ -2438,13 +2453,13 @@
         <v>267104</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2474,13 @@
         <v>97619</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>72</v>
@@ -2474,13 +2489,13 @@
         <v>78128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>166</v>
@@ -2489,13 +2504,13 @@
         <v>175747</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2525,13 @@
         <v>193196</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>101</v>
@@ -2525,13 +2540,13 @@
         <v>110471</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>289</v>
@@ -2540,10 +2555,10 @@
         <v>303667</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>87</v>
@@ -2663,13 +2678,13 @@
         <v>906984</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>531</v>
@@ -2678,13 +2693,13 @@
         <v>568657</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1390</v>
@@ -2693,13 +2708,13 @@
         <v>1475641</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2803,7 @@
         <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -2797,13 +2812,13 @@
         <v>48966</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2833,13 @@
         <v>51548</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -2833,13 +2848,13 @@
         <v>55187</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -2848,13 +2863,13 @@
         <v>106735</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2884,13 @@
         <v>75499</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2884,13 +2899,13 @@
         <v>39927</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -2899,13 +2914,13 @@
         <v>115426</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2935,13 @@
         <v>121751</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -2935,13 +2950,13 @@
         <v>95065</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>193</v>
@@ -2950,13 +2965,13 @@
         <v>216816</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2986,13 @@
         <v>315341</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>207</v>
@@ -2986,13 +3001,13 @@
         <v>231687</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>492</v>
@@ -3001,13 +3016,13 @@
         <v>547028</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3039,13 @@
         <v>256462</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>141</v>
@@ -3039,13 +3054,13 @@
         <v>153681</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>384</v>
@@ -3054,13 +3069,13 @@
         <v>410143</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3090,13 @@
         <v>160686</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>105</v>
@@ -3090,13 +3105,13 @@
         <v>111852</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>255</v>
@@ -3105,13 +3120,13 @@
         <v>272539</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3141,13 @@
         <v>279892</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>181</v>
@@ -3141,13 +3156,13 @@
         <v>196190</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>450</v>
@@ -3156,13 +3171,13 @@
         <v>476082</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3192,13 @@
         <v>296877</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>164</v>
@@ -3192,13 +3207,13 @@
         <v>176676</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>443</v>
@@ -3207,13 +3222,13 @@
         <v>473552</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3243,13 @@
         <v>409124</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>275</v>
@@ -3243,13 +3258,13 @@
         <v>299795</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>651</v>
@@ -3258,13 +3273,13 @@
         <v>708919</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3294,13 @@
         <v>1403041</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>866</v>
@@ -3294,13 +3309,13 @@
         <v>938194</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>2183</v>
@@ -3309,18 +3324,18 @@
         <v>2341235</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +3354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601AC534-476A-46DD-A81E-8FCD3C7EE526}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1335A6-66F4-47F0-9354-73DB62452F66}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3356,7 +3371,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3463,13 +3478,13 @@
         <v>38410</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3478,13 +3493,13 @@
         <v>15158</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -3493,13 +3508,13 @@
         <v>53569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3529,13 @@
         <v>28587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -3529,13 +3544,13 @@
         <v>17242</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -3544,13 +3559,13 @@
         <v>45830</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3580,13 @@
         <v>31839</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -3580,13 +3595,13 @@
         <v>14939</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -3595,13 +3610,13 @@
         <v>46778</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3631,13 @@
         <v>24370</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3631,13 +3646,13 @@
         <v>12977</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -3646,13 +3661,13 @@
         <v>37348</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3682,13 @@
         <v>19911</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -3682,13 +3697,13 @@
         <v>11770</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -3697,13 +3712,13 @@
         <v>31681</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,13 +3733,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3733,13 +3748,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3748,18 +3763,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3771,13 +3786,13 @@
         <v>202620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>96</v>
@@ -3786,13 +3801,13 @@
         <v>97703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>284</v>
@@ -3801,13 +3816,13 @@
         <v>300323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3837,13 @@
         <v>149922</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -3837,13 +3852,13 @@
         <v>98135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>234</v>
@@ -3852,13 +3867,13 @@
         <v>248057</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3888,13 @@
         <v>200564</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H12" s="7">
         <v>157</v>
@@ -3888,13 +3903,13 @@
         <v>161873</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>346</v>
@@ -3903,13 +3918,13 @@
         <v>362437</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>259</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3939,13 @@
         <v>201178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -3939,13 +3954,13 @@
         <v>123377</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -3954,13 +3969,13 @@
         <v>324554</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3990,13 @@
         <v>170913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>169</v>
@@ -3990,13 +4005,13 @@
         <v>171688</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>327</v>
@@ -4005,13 +4020,13 @@
         <v>342601</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4041,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -4041,13 +4056,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -4056,13 +4071,13 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4094,13 @@
         <v>62817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -4094,13 +4109,13 @@
         <v>49299</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -4109,13 +4124,13 @@
         <v>112115</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,10 +4148,10 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -4145,13 +4160,13 @@
         <v>37902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -4160,13 +4175,13 @@
         <v>88084</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4196,13 @@
         <v>73146</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
@@ -4196,13 +4211,13 @@
         <v>65608</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>129</v>
@@ -4211,13 +4226,13 @@
         <v>138755</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4247,13 @@
         <v>73021</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -4247,13 +4262,13 @@
         <v>58385</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>124</v>
@@ -4262,13 +4277,13 @@
         <v>131407</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4298,13 @@
         <v>91441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>93</v>
@@ -4298,13 +4313,13 @@
         <v>97259</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>179</v>
@@ -4313,13 +4328,13 @@
         <v>188700</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>191</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4349,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -4349,13 +4364,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -4364,13 +4379,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4402,13 @@
         <v>303848</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -4402,13 +4417,13 @@
         <v>162160</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>440</v>
@@ -4417,13 +4432,13 @@
         <v>466007</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4453,13 @@
         <v>228692</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>150</v>
@@ -4453,13 +4468,13 @@
         <v>153279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>225</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>362</v>
@@ -4468,13 +4483,13 @@
         <v>381971</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4504,13 @@
         <v>305549</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="H24" s="7">
         <v>237</v>
@@ -4504,13 +4519,13 @@
         <v>242420</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>520</v>
@@ -4519,13 +4534,13 @@
         <v>547969</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4555,13 @@
         <v>298570</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>190</v>
@@ -4555,13 +4570,13 @@
         <v>194739</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="M25" s="7">
         <v>472</v>
@@ -4570,13 +4585,13 @@
         <v>493308</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4606,13 @@
         <v>282266</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
         <v>274</v>
@@ -4606,13 +4621,13 @@
         <v>280717</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
         <v>535</v>
@@ -4621,13 +4636,13 @@
         <v>562982</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4657,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4657,13 +4672,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4672,18 +4687,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4702,7 +4717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AF3744-B4A8-49B6-ADD5-2F378BBF7E4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F217E09-A940-4E18-B8A2-E43D2299EC66}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4719,7 +4734,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4826,13 +4841,13 @@
         <v>14091</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4841,13 +4856,13 @@
         <v>7039</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -4856,13 +4871,13 @@
         <v>21131</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4892,13 @@
         <v>4693</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4892,13 +4907,13 @@
         <v>2068</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>373</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4907,13 +4922,13 @@
         <v>6761</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4943,13 @@
         <v>5421</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4943,13 +4958,13 @@
         <v>6283</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4958,13 +4973,13 @@
         <v>11704</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4994,13 @@
         <v>3055</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4994,13 +5009,13 @@
         <v>3562</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -5009,13 +5024,13 @@
         <v>6617</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5045,13 @@
         <v>6126</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5045,13 +5060,13 @@
         <v>1359</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>395</v>
+        <v>62</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5060,13 +5075,13 @@
         <v>7485</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>396</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5096,13 @@
         <v>33387</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -5096,13 +5111,13 @@
         <v>20311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>66</v>
@@ -5111,18 +5126,18 @@
         <v>53698</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5134,13 +5149,13 @@
         <v>91536</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -5149,13 +5164,13 @@
         <v>50489</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M10" s="7">
         <v>139</v>
@@ -5164,13 +5179,13 @@
         <v>142025</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5200,13 @@
         <v>57492</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>412</v>
       </c>
       <c r="H11" s="7">
         <v>61</v>
@@ -5200,13 +5215,13 @@
         <v>41426</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M11" s="7">
         <v>117</v>
@@ -5215,13 +5230,13 @@
         <v>98919</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5251,13 @@
         <v>63597</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H12" s="7">
         <v>89</v>
@@ -5251,13 +5266,13 @@
         <v>67342</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>93</v>
+        <v>419</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M12" s="7">
         <v>148</v>
@@ -5266,13 +5281,13 @@
         <v>130939</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>420</v>
+        <v>232</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5302,13 @@
         <v>89509</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -5302,13 +5317,13 @@
         <v>39078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>429</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -5317,13 +5332,13 @@
         <v>128587</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5353,13 @@
         <v>27663</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -5353,13 +5368,13 @@
         <v>53262</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M14" s="7">
         <v>83</v>
@@ -5368,13 +5383,13 @@
         <v>80925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5404,13 @@
         <v>329797</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>330</v>
@@ -5404,13 +5419,13 @@
         <v>251597</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>575</v>
@@ -5419,13 +5434,13 @@
         <v>581394</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5457,13 @@
         <v>38672</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>141</v>
+        <v>444</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -5457,13 +5472,13 @@
         <v>30154</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -5472,13 +5487,13 @@
         <v>68826</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5508,13 @@
         <v>15478</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -5508,13 +5523,13 @@
         <v>14900</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>454</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>449</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5523,13 +5538,13 @@
         <v>30378</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5559,13 @@
         <v>30738</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>454</v>
+        <v>345</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>157</v>
+        <v>459</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>455</v>
+        <v>188</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -5559,13 +5574,13 @@
         <v>29273</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>460</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
@@ -5574,13 +5589,13 @@
         <v>60011</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>458</v>
+        <v>90</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5610,13 @@
         <v>14572</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>465</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -5610,13 +5625,13 @@
         <v>16738</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -5625,13 +5640,13 @@
         <v>31310</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5661,13 @@
         <v>32958</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -5661,13 +5676,13 @@
         <v>23298</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>470</v>
+        <v>253</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>471</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>53</v>
@@ -5676,13 +5691,13 @@
         <v>56256</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>472</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>473</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5712,13 @@
         <v>132419</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>146</v>
@@ -5712,13 +5727,13 @@
         <v>114363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>262</v>
@@ -5727,13 +5742,13 @@
         <v>246782</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5765,13 @@
         <v>144300</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H22" s="7">
         <v>111</v>
@@ -5765,13 +5780,13 @@
         <v>87683</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>344</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M22" s="7">
         <v>230</v>
@@ -5780,13 +5795,13 @@
         <v>231982</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>481</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5816,13 @@
         <v>77663</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>166</v>
+        <v>485</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -5816,13 +5831,13 @@
         <v>58394</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>67</v>
       </c>
       <c r="M23" s="7">
         <v>160</v>
@@ -5831,13 +5846,13 @@
         <v>136058</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>76</v>
+        <v>490</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>89</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5867,13 @@
         <v>99756</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H24" s="7">
         <v>140</v>
@@ -5867,13 +5882,13 @@
         <v>102898</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>491</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -5882,13 +5897,13 @@
         <v>202655</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5918,13 @@
         <v>107136</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H25" s="7">
         <v>79</v>
@@ -5918,13 +5933,13 @@
         <v>59378</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>503</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
@@ -5933,13 +5948,13 @@
         <v>166514</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +5969,13 @@
         <v>66748</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>326</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>93</v>
@@ -5969,13 +5984,13 @@
         <v>77918</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>508</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="M26" s="7">
         <v>143</v>
@@ -5984,13 +5999,13 @@
         <v>144666</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>433</v>
+        <v>511</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6020,13 @@
         <v>495603</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -6020,13 +6035,13 @@
         <v>386271</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>903</v>
@@ -6035,18 +6050,18 @@
         <v>881874</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6706-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB46A3DE-31B1-47F8-A99A-13C96BB23439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27B604D7-1D45-47CA-A1D9-597EC70AD7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0622565-89AA-4DB6-9F75-FA9A187C1BAD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6EEC1141-F075-4A4A-BD19-1E9BDB5F450F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -1117,469 +1117,469 @@
     <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
   </si>
   <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>28,91%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>20,13%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
 </sst>
 </file>
@@ -1991,7 +1991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64A30D2-3BF8-447E-AFC6-682E805538F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A2096D-623B-4DE8-BFC7-F17C429DA166}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3354,7 +3354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1335A6-66F4-47F0-9354-73DB62452F66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C24F8CB-9AD6-4106-9A17-DBB1500CAAF6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4531,7 +4531,7 @@
         <v>520</v>
       </c>
       <c r="N24" s="7">
-        <v>547969</v>
+        <v>547970</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>340</v>
@@ -4582,7 +4582,7 @@
         <v>472</v>
       </c>
       <c r="N25" s="7">
-        <v>493308</v>
+        <v>493309</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>348</v>
@@ -4633,7 +4633,7 @@
         <v>535</v>
       </c>
       <c r="N26" s="7">
-        <v>562982</v>
+        <v>562983</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>355</v>
@@ -4684,7 +4684,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4717,7 +4717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F217E09-A940-4E18-B8A2-E43D2299EC66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82134DE2-85EE-4EEB-9289-F104CFE2D781}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4838,7 +4838,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>14091</v>
+        <v>14099</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>359</v>
@@ -4853,31 +4853,31 @@
         <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>7039</v>
+        <v>6276</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>362</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>21131</v>
+        <v>20376</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,46 +4889,46 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>4693</v>
+        <v>4634</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>2068</v>
+        <v>1883</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>6761</v>
+        <v>6517</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,46 +4940,46 @@
         <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>5421</v>
+        <v>6071</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>6283</v>
+        <v>5596</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
       </c>
       <c r="N6" s="7">
-        <v>11704</v>
+        <v>11667</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,46 +4991,46 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>3055</v>
+        <v>2749</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>3562</v>
+        <v>3271</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>6617</v>
+        <v>6020</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,46 +5042,46 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>6126</v>
+        <v>5388</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1359</v>
+        <v>1177</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>7485</v>
+        <v>6565</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,7 +5093,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>33387</v>
+        <v>32942</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -5108,7 +5108,7 @@
         <v>33</v>
       </c>
       <c r="I9" s="7">
-        <v>20311</v>
+        <v>18203</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -5123,7 +5123,7 @@
         <v>66</v>
       </c>
       <c r="N9" s="7">
-        <v>53698</v>
+        <v>51145</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5146,46 +5146,46 @@
         <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>91536</v>
+        <v>89355</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
       </c>
       <c r="I10" s="7">
-        <v>50489</v>
+        <v>46089</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>139</v>
       </c>
       <c r="N10" s="7">
-        <v>142025</v>
+        <v>135444</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,46 +5197,46 @@
         <v>56</v>
       </c>
       <c r="D11" s="7">
-        <v>57492</v>
+        <v>55337</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H11" s="7">
         <v>61</v>
       </c>
       <c r="I11" s="7">
-        <v>41426</v>
+        <v>37947</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>412</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>413</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
       <c r="M11" s="7">
         <v>117</v>
       </c>
       <c r="N11" s="7">
-        <v>98919</v>
+        <v>93284</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,43 +5248,43 @@
         <v>59</v>
       </c>
       <c r="D12" s="7">
-        <v>63597</v>
+        <v>60585</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>159</v>
+        <v>416</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>417</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>418</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>89</v>
       </c>
       <c r="I12" s="7">
-        <v>67342</v>
+        <v>61877</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M12" s="7">
         <v>148</v>
       </c>
       <c r="N12" s="7">
-        <v>130939</v>
+        <v>122462</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>423</v>
@@ -5299,7 +5299,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>89509</v>
+        <v>279117</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>424</v>
@@ -5314,7 +5314,7 @@
         <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>39078</v>
+        <v>35004</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>427</v>
@@ -5329,7 +5329,7 @@
         <v>88</v>
       </c>
       <c r="N13" s="7">
-        <v>128587</v>
+        <v>314121</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>430</v>
@@ -5350,7 +5350,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>27663</v>
+        <v>26275</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>433</v>
@@ -5365,31 +5365,31 @@
         <v>62</v>
       </c>
       <c r="I14" s="7">
-        <v>53262</v>
+        <v>48641</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M14" s="7">
         <v>83</v>
       </c>
       <c r="N14" s="7">
-        <v>80925</v>
+        <v>74916</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>440</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>441</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,7 +5401,7 @@
         <v>245</v>
       </c>
       <c r="D15" s="7">
-        <v>329797</v>
+        <v>510669</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5416,7 +5416,7 @@
         <v>330</v>
       </c>
       <c r="I15" s="7">
-        <v>251597</v>
+        <v>229558</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5431,7 +5431,7 @@
         <v>575</v>
       </c>
       <c r="N15" s="7">
-        <v>581394</v>
+        <v>740228</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5454,46 +5454,46 @@
         <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>38672</v>
+        <v>36434</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>30154</v>
+        <v>27531</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
       </c>
       <c r="N16" s="7">
-        <v>68826</v>
+        <v>63965</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,46 +5505,46 @@
         <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>15478</v>
+        <v>14879</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>453</v>
+        <v>134</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>14900</v>
+        <v>13973</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>452</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
       </c>
       <c r="N17" s="7">
-        <v>30378</v>
+        <v>28853</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,22 +5556,22 @@
         <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>30738</v>
+        <v>29545</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
       </c>
       <c r="I18" s="7">
-        <v>29273</v>
+        <v>27527</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>460</v>
@@ -5586,16 +5586,16 @@
         <v>73</v>
       </c>
       <c r="N18" s="7">
-        <v>60011</v>
+        <v>57072</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>463</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,46 +5607,46 @@
         <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>14572</v>
+        <v>13515</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>16738</v>
+        <v>15347</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>468</v>
+        <v>184</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
       </c>
       <c r="N19" s="7">
-        <v>31310</v>
+        <v>28862</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,46 +5658,46 @@
         <v>24</v>
       </c>
       <c r="D20" s="7">
-        <v>32958</v>
+        <v>30842</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>201</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
       </c>
       <c r="I20" s="7">
-        <v>23298</v>
+        <v>21322</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>53</v>
       </c>
       <c r="N20" s="7">
-        <v>56256</v>
+        <v>52164</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,7 +5709,7 @@
         <v>116</v>
       </c>
       <c r="D21" s="7">
-        <v>132419</v>
+        <v>125215</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -5724,7 +5724,7 @@
         <v>146</v>
       </c>
       <c r="I21" s="7">
-        <v>114363</v>
+        <v>105701</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5739,7 +5739,7 @@
         <v>262</v>
       </c>
       <c r="N21" s="7">
-        <v>246782</v>
+        <v>230916</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5762,46 +5762,46 @@
         <v>119</v>
       </c>
       <c r="D22" s="7">
-        <v>144300</v>
+        <v>139889</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="H22" s="7">
         <v>111</v>
       </c>
       <c r="I22" s="7">
-        <v>87683</v>
+        <v>79896</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>479</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M22" s="7">
         <v>230</v>
       </c>
       <c r="N22" s="7">
-        <v>231982</v>
+        <v>219785</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,46 +5813,46 @@
         <v>74</v>
       </c>
       <c r="D23" s="7">
-        <v>77663</v>
+        <v>74851</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>486</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
       </c>
       <c r="I23" s="7">
-        <v>58394</v>
+        <v>53803</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>67</v>
+        <v>492</v>
       </c>
       <c r="M23" s="7">
         <v>160</v>
       </c>
       <c r="N23" s="7">
-        <v>136058</v>
+        <v>128654</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,46 +5864,46 @@
         <v>97</v>
       </c>
       <c r="D24" s="7">
-        <v>99756</v>
+        <v>96201</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H24" s="7">
         <v>140</v>
       </c>
       <c r="I24" s="7">
-        <v>102898</v>
+        <v>95001</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>87</v>
+        <v>498</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
       </c>
       <c r="N24" s="7">
-        <v>202655</v>
+        <v>191202</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>497</v>
+        <v>248</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,46 +5915,46 @@
         <v>54</v>
       </c>
       <c r="D25" s="7">
-        <v>107136</v>
+        <v>295382</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H25" s="7">
         <v>79</v>
       </c>
       <c r="I25" s="7">
-        <v>59378</v>
+        <v>53622</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>503</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
       </c>
       <c r="N25" s="7">
-        <v>166514</v>
+        <v>349004</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>505</v>
+        <v>329</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,46 +5966,46 @@
         <v>50</v>
       </c>
       <c r="D26" s="7">
-        <v>66748</v>
+        <v>62505</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>72</v>
+        <v>510</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>380</v>
       </c>
       <c r="H26" s="7">
         <v>93</v>
       </c>
       <c r="I26" s="7">
-        <v>77918</v>
+        <v>71140</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>510</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>143</v>
       </c>
       <c r="N26" s="7">
-        <v>144666</v>
+        <v>133645</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>511</v>
+        <v>205</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>513</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,7 +6017,7 @@
         <v>394</v>
       </c>
       <c r="D27" s="7">
-        <v>495603</v>
+        <v>668827</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6032,7 +6032,7 @@
         <v>509</v>
       </c>
       <c r="I27" s="7">
-        <v>386271</v>
+        <v>353462</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6047,7 +6047,7 @@
         <v>903</v>
       </c>
       <c r="N27" s="7">
-        <v>881874</v>
+        <v>1022289</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
